--- a/results/mp/tinybert/dilemma/confidence/126/stop-words-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/126/stop-words-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,21 +40,21 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
     <t>terrifying</t>
   </si>
   <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
     <t>creepy</t>
   </si>
   <si>
@@ -76,27 +76,24 @@
     <t>scary</t>
   </si>
   <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
     <t>bad</t>
   </si>
   <si>
-    <t>fake</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -106,43 +103,37 @@
     <t>brilliant</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>wow</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
     <t>social</t>
   </si>
   <si>
-    <t>documentary</t>
+    <t>netflix</t>
   </si>
   <si>
     <t>media</t>
+  </si>
+  <si>
+    <t>…</t>
   </si>
   <si>
     <t>positive</t>
@@ -503,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -511,10 +502,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -572,13 +563,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9393939393939394</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -590,10 +581,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -622,13 +613,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -640,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K4">
         <v>0.9090909090909091</v>
@@ -672,13 +663,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9230769230769231</v>
+        <v>0.9423076923076923</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -690,19 +681,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K5">
-        <v>0.88</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L5">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="M5">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -714,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -722,13 +713,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9230769230769231</v>
+        <v>0.9</v>
       </c>
       <c r="C6">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -740,19 +731,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K6">
-        <v>0.8333333333333334</v>
+        <v>0.86</v>
       </c>
       <c r="L6">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="M6">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -764,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -772,13 +763,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8666666666666667</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="C7">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -790,19 +781,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K7">
-        <v>0.7368421052631579</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="L7">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M7">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -814,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -843,16 +834,16 @@
         <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K8">
-        <v>0.6133333333333333</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="L8">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="M8">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -864,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -872,13 +863,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7894736842105263</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -890,19 +881,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K9">
-        <v>0.5666666666666667</v>
+        <v>0.52</v>
       </c>
       <c r="L9">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="M9">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -914,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -922,13 +913,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.675</v>
+        <v>0.7</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -940,31 +931,31 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K10">
-        <v>0.5172413793103449</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="L10">
+        <v>14</v>
+      </c>
+      <c r="M10">
+        <v>14</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>15</v>
-      </c>
-      <c r="M10">
-        <v>15</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -993,10 +984,10 @@
         <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K11">
-        <v>0.4736842105263158</v>
+        <v>0.1875</v>
       </c>
       <c r="L11">
         <v>9</v>
@@ -1014,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1043,16 +1034,16 @@
         <v>6</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K12">
-        <v>0.3333333333333333</v>
+        <v>0.06010928961748634</v>
       </c>
       <c r="L12">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="M12">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1064,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>18</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1072,13 +1063,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1090,19 +1081,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K13">
-        <v>0.2083333333333333</v>
+        <v>0.02592592592592593</v>
       </c>
       <c r="L13">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M13">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1114,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>38</v>
+        <v>526</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1122,13 +1113,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4782608695652174</v>
+        <v>0.5362318840579711</v>
       </c>
       <c r="C14">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D14">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1140,19 +1131,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K14">
-        <v>0.1692307692307692</v>
+        <v>0.01506024096385542</v>
       </c>
       <c r="L14">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M14">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1164,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>54</v>
+        <v>654</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1172,13 +1163,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4468085106382979</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="C15">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D15">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1190,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15">
-        <v>0.075591985428051</v>
+        <v>0.00576036866359447</v>
       </c>
       <c r="L15">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="M15">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1214,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>1015</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1222,13 +1213,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4347826086956522</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1240,45 +1231,21 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>13</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K16">
-        <v>0.04240282685512368</v>
-      </c>
-      <c r="L16">
-        <v>12</v>
-      </c>
-      <c r="M16">
-        <v>12</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4285714285714285</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D17">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1290,45 +1257,21 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>20</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K17">
-        <v>0.02710843373493976</v>
-      </c>
-      <c r="L17">
-        <v>18</v>
-      </c>
-      <c r="M17">
-        <v>18</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4230769230769231</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="C18">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D18">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1340,21 +1283,21 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3928571428571428</v>
+        <v>0.3617021276595745</v>
       </c>
       <c r="C19">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D19">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1366,21 +1309,21 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.282051282051282</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="C20">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D20">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1392,33 +1335,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.1153846153846154</v>
-      </c>
-      <c r="C21">
-        <v>9</v>
-      </c>
-      <c r="D21">
-        <v>9</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>69</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
